--- a/src/main/resources/Addschooladmin.xlsx
+++ b/src/main/resources/Addschooladmin.xlsx
@@ -66,13 +66,13 @@
     <t>User Code - VK03</t>
   </si>
   <si>
-    <t>Rishi</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>User Code - RK76</t>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>User Code - RS88</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addschooladmin.xlsx
+++ b/src/main/resources/Addschooladmin.xlsx
@@ -66,13 +66,13 @@
     <t>User Code - VK03</t>
   </si>
   <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
     <t>Sebastian</t>
   </si>
   <si>
-    <t>User Code - RS88</t>
+    <t>Thirumalai</t>
+  </si>
+  <si>
+    <t>User Code - TS89</t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>

--- a/src/main/resources/Addschooladmin.xlsx
+++ b/src/main/resources/Addschooladmin.xlsx
@@ -66,13 +66,13 @@
     <t>User Code - VK03</t>
   </si>
   <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Thirumalai</t>
-  </si>
-  <si>
-    <t>User Code - TS89</t>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>User Code - HN93</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" activeCellId="1" sqref="C2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,10 +465,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
